--- a/biology/Microbiologie/Brenneria/Brenneria.xlsx
+++ b/biology/Microbiologie/Brenneria/Brenneria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brenneria est un genre de bacilles Gram négatifs de la famille des Pectobacteriaceae.
 Il contient plusieurs espèces de bactéries phytopathogènes parasites de plantes ligneuses.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit en 1999 par les microbiologistes Lysiane Hauben, Edward R.B.Moore, Luc Vauterin, Marijke Steenackers, Joris Mergaert, Linda Verdonck et Jean Swings[1]. Le nom générique, « Brenneria », est un hommage au microbiologiste Don J. Brenner[2].
-Jusqu'en 2016 il était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Pectobacteriaceae nouvellement créée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit en 1999 par les microbiologistes Lysiane Hauben, Edward R.B.Moore, Luc Vauterin, Marijke Steenackers, Joris Mergaert, Linda Verdonck et Jean Swings. Le nom générique, « Brenneria », est un hommage au microbiologiste Don J. Brenner.
+Jusqu'en 2016 il était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Pectobacteriaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (26 octobre 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 octobre 2022) :
 Brenneria alni (Surico et al. 1996) Hauben et al. 1999
 Brenneria corticis Li et al. 2019
 Brenneria goodwinii Denman et al. 2012
